--- a/data/Subset 1/Towers 3_Grade 4.xlsx
+++ b/data/Subset 1/Towers 3_Grade 4.xlsx
@@ -653,7 +653,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3 - getting students to relate</t>
+          <t>3 - getting SS to relate</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1905,7 +1905,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>3 - getting students to relate</t>
+          <t>3 - getting SS to relate</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>3 - getting students to relate</t>
+          <t>3 - getting SS to relate</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
